--- a/Weekly Schedule/biweekly-work-schedule-李军.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李军.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>MORNING</t>
   </si>
@@ -236,15 +236,23 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>海闻科技项目的最终版实施方案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡搭建</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙银行材料补充</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行疑问解答</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>haproxy搭建完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化接口demo使用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长银58预计6月初整体上线，周三测无纸化系统接口</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -433,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -686,12 +694,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,6 +808,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1102,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -1115,14 +1155,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1170,10 +1210,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1184,16 +1224,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1272,7 +1312,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1316,7 +1356,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1394,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1465,7 +1505,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1476,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1489,7 +1529,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1506,7 +1546,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1556,7 +1596,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1571,7 +1611,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="41" t="s">
         <v>41</v>
@@ -1581,7 +1621,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1600,7 +1640,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1614,7 +1654,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>43</v>
       </c>
@@ -1625,7 +1665,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1644,7 +1684,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1658,14 +1698,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1684,7 +1724,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1694,14 +1734,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1720,7 +1760,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1730,14 +1770,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1773,31 +1813,35 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
     </row>
@@ -1820,7 +1864,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1830,14 +1874,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1861,7 +1905,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1871,14 +1915,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1897,7 +1941,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1907,14 +1951,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1933,7 +1977,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1943,14 +1987,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1969,7 +2013,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1977,14 +2021,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2003,7 +2047,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -2013,20 +2057,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -2034,6 +2078,7 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -2073,11 +2118,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2086,14 +2131,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2141,10 +2186,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2155,16 +2200,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2243,7 +2288,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="45">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -2283,7 +2328,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2319,7 +2364,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2428,7 +2473,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -2452,7 +2497,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -2469,7 +2514,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2515,7 +2560,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -2526,7 +2571,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2534,7 +2579,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2553,7 +2598,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -2563,14 +2608,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2589,7 +2634,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -2599,14 +2644,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2625,7 +2670,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="45">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -2635,14 +2680,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2661,7 +2706,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="45">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -2671,14 +2716,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2714,7 +2759,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="45">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -2730,7 +2775,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="45"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="41" t="s">
         <v>23</v>
@@ -2741,7 +2786,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2765,7 +2810,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="45">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -2781,7 +2826,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="45"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="39" t="s">
         <v>27</v>
       </c>
@@ -2792,7 +2837,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2816,7 +2861,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="45">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -2832,7 +2877,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="45"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="39" t="s">
         <v>27</v>
       </c>
@@ -2843,7 +2888,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2862,7 +2907,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="45">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -2878,13 +2923,13 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="39"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2903,7 +2948,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="45">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -2915,14 +2960,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2941,7 +2986,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="45">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -2949,14 +2994,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2975,7 +3020,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="45">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -2985,14 +3030,14 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
